--- a/2.Excel/hands-on/6.Funcoes_Mercado/6.Exercicios_SOMASE_CONTSE/1.SOMASE_CONTSE_exercicio.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/6.Exercicios_SOMASE_CONTSE/1.SOMASE_CONTSE_exercicio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\6.Exercicios_SOMASE_CONTSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC5EA1-03FF-4C1F-9F83-3A7411499816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F1BE27-8CE6-458C-9A3E-A05CD9146F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="12144" yWindow="168" windowWidth="10896" windowHeight="12792" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="Pratica" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Gabarito!$A$1:$F$811</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pratica!$A$1:$F$811</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Gabarito!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Pratica!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Pratica!$S$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="845">
   <si>
     <t>Produto</t>
   </si>
@@ -2575,6 +2575,9 @@
   </si>
   <si>
     <t>Total Estoque</t>
+  </si>
+  <si>
+    <t>&gt;60.000</t>
   </si>
 </sst>
 </file>
@@ -3100,10 +3103,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L811"/>
+  <dimension ref="A1:S811"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,13 +3116,17 @@
     <col min="3" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3145,8 +3152,17 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3165,8 +3181,17 @@
       <c r="F2" s="3">
         <v>251732</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3191,8 +3216,17 @@
       <c r="L3" s="21" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3212,14 +3246,23 @@
         <v>191952</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L4" s="24">
         <f>COUNTIFS(B:B,H4)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3238,8 +3281,14 @@
       <c r="F5" s="3">
         <v>224098</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3258,8 +3307,11 @@
       <c r="F6" s="3">
         <v>212991</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3285,8 +3337,11 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3305,8 +3360,11 @@
       <c r="F8" s="3">
         <v>143182</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3334,8 +3392,11 @@
       <c r="L9" s="21" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3364,8 +3425,11 @@
         <f>SUMIFS(F:F,C:C,H10,D:D,I10)</f>
         <v>13910493</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3385,8 +3449,11 @@
         <v>52170</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3405,8 +3472,11 @@
       <c r="F12" s="3">
         <v>133690</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3432,8 +3502,11 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3453,7 +3526,7 @@
         <v>101668</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3482,7 +3555,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3502,14 +3575,14 @@
         <v>276229</v>
       </c>
       <c r="H16" s="17">
-        <v>42005</v>
+        <v>43831</v>
       </c>
       <c r="I16" s="17">
-        <v>43465</v>
+        <v>43861</v>
       </c>
       <c r="L16" s="22">
         <f>COUNTIFS(E:E,"&gt;="&amp;H16,E:E,"&lt;="&amp;I16)</f>
-        <v>288</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3651,17 +3724,17 @@
         <v>283552</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="L22" s="22">
         <f>SUMIFS(F:F,B:B,H22,D:D,I22,F:F,J22)</f>
-        <v>2569433</v>
+        <v>3586860</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -19445,8 +19518,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F811" xr:uid="{37263547-D7E7-4AC6-B262-BC90CCAE7898}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:S13">
+    <sortCondition ref="Q3:Q13"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H22" xr:uid="{E94EB3C3-0CAE-4AEF-9319-79770F95BE75}">
+      <formula1>$Q$2:$Q$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22 I10" xr:uid="{4D7AB241-F21D-4EAB-8C00-8F3D91CF06E1}">
+      <formula1>$S$2:$S$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10" xr:uid="{7775E19A-4321-45DF-9476-21C387ACAAE9}">
+      <formula1>$R$2:$R$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19459,7 +19545,9 @@
   </sheetPr>
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19499,121 +19587,265 @@
       <c r="B3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B3,Pratica!$D:$D,C$2)</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B3,Pratica!$D:$D,D$2)</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B3,Pratica!$D:$D,E$2)</f>
+        <v>21</v>
+      </c>
       <c r="G3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G3,Pratica!$D:$D,Resumo_Pratica!H$2)</f>
+        <v>7331299</v>
+      </c>
+      <c r="I3" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G3,Pratica!$D:$D,Resumo_Pratica!I$2)</f>
+        <v>4530684</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G3,Pratica!$D:$D,Resumo_Pratica!J$2)</f>
+        <v>6261902</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B4,Pratica!$D:$D,C$2)</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B4,Pratica!$D:$D,D$2)</f>
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B4,Pratica!$D:$D,E$2)</f>
+        <v>27</v>
+      </c>
       <c r="G4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G4,Pratica!$D:$D,Resumo_Pratica!H$2)</f>
+        <v>11750110</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G4,Pratica!$D:$D,Resumo_Pratica!I$2)</f>
+        <v>14555438</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G4,Pratica!$D:$D,Resumo_Pratica!J$2)</f>
+        <v>16686414</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B5,Pratica!$D:$D,C$2)</f>
+        <v>21</v>
+      </c>
+      <c r="D5" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B5,Pratica!$D:$D,D$2)</f>
+        <v>26</v>
+      </c>
+      <c r="E5" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B5,Pratica!$D:$D,E$2)</f>
+        <v>18</v>
+      </c>
       <c r="G5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G5,Pratica!$D:$D,Resumo_Pratica!H$2)</f>
+        <v>12928068</v>
+      </c>
+      <c r="I5" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G5,Pratica!$D:$D,Resumo_Pratica!I$2)</f>
+        <v>13910493</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G5,Pratica!$D:$D,Resumo_Pratica!J$2)</f>
+        <v>14396672</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B6,Pratica!$D:$D,C$2)</f>
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B6,Pratica!$D:$D,D$2)</f>
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B6,Pratica!$D:$D,E$2)</f>
+        <v>15</v>
+      </c>
       <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G6,Pratica!$D:$D,Resumo_Pratica!H$2)</f>
+        <v>6306072</v>
+      </c>
+      <c r="I6" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G6,Pratica!$D:$D,Resumo_Pratica!I$2)</f>
+        <v>6541748</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUMIFS(Pratica!$F:$F,Pratica!$C:$C,Resumo_Pratica!$G6,Pratica!$D:$D,Resumo_Pratica!J$2)</f>
+        <v>4831260</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B7,Pratica!$D:$D,C$2)</f>
+        <v>24</v>
+      </c>
+      <c r="D7" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B7,Pratica!$D:$D,D$2)</f>
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B7,Pratica!$D:$D,E$2)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B8,Pratica!$D:$D,C$2)</f>
+        <v>36</v>
+      </c>
+      <c r="D8" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B8,Pratica!$D:$D,D$2)</f>
+        <v>44</v>
+      </c>
+      <c r="E8" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B8,Pratica!$D:$D,E$2)</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B9,Pratica!$D:$D,C$2)</f>
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B9,Pratica!$D:$D,D$2)</f>
+        <v>27</v>
+      </c>
+      <c r="E9" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B9,Pratica!$D:$D,E$2)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B10,Pratica!$D:$D,C$2)</f>
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B10,Pratica!$D:$D,D$2)</f>
+        <v>14</v>
+      </c>
+      <c r="E10" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B10,Pratica!$D:$D,E$2)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B11,Pratica!$D:$D,C$2)</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B11,Pratica!$D:$D,D$2)</f>
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B11,Pratica!$D:$D,E$2)</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B12,Pratica!$D:$D,C$2)</f>
+        <v>15</v>
+      </c>
+      <c r="D12" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B12,Pratica!$D:$D,D$2)</f>
+        <v>19</v>
+      </c>
+      <c r="E12" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B12,Pratica!$D:$D,E$2)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B13,Pratica!$D:$D,C$2)</f>
+        <v>22</v>
+      </c>
+      <c r="D13" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B13,Pratica!$D:$D,D$2)</f>
+        <v>21</v>
+      </c>
+      <c r="E13" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B13,Pratica!$D:$D,E$2)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B14,Pratica!$D:$D,C$2)</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B14,Pratica!$D:$D,D$2)</f>
+        <v>17</v>
+      </c>
+      <c r="E14" s="8">
+        <f>COUNTIFS(Pratica!$B:$B,$B14,Pratica!$D:$D,E$2)</f>
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
